--- a/data/Liste especes mediterranee.xlsx
+++ b/data/Liste especes mediterranee.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2412" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="744">
   <si>
     <t>Clupeidae</t>
   </si>
@@ -669,18 +669,6 @@
     <t>Bogue</t>
   </si>
   <si>
-    <t>Kyphosidae</t>
-  </si>
-  <si>
-    <t>Kyphosus</t>
-  </si>
-  <si>
-    <t>sectarix</t>
-  </si>
-  <si>
-    <t>Calicagère blanche</t>
-  </si>
-  <si>
     <t>Haemulidae</t>
   </si>
   <si>
@@ -2229,82 +2217,10 @@
     <t>Nérophis tacheté</t>
   </si>
   <si>
-    <t>Argonautidae</t>
-  </si>
-  <si>
-    <t>Argonauta</t>
-  </si>
-  <si>
-    <t>argo</t>
-  </si>
-  <si>
-    <t>Argonaute</t>
-  </si>
-  <si>
-    <t>Octopodidae</t>
-  </si>
-  <si>
-    <t>Callistoctopus</t>
-  </si>
-  <si>
-    <t>macropus</t>
-  </si>
-  <si>
-    <t>Poulpe tacheté</t>
-  </si>
-  <si>
-    <t>Octopus</t>
-  </si>
-  <si>
-    <t>Poulpe commun</t>
-  </si>
-  <si>
-    <t>Eledone</t>
-  </si>
-  <si>
-    <t>moschata</t>
-  </si>
-  <si>
-    <t>Eledone musquée</t>
-  </si>
-  <si>
-    <t>Sepia</t>
-  </si>
-  <si>
-    <t>officinalis</t>
-  </si>
-  <si>
-    <t>Seiche commune</t>
-  </si>
-  <si>
-    <t>Sepiolidae</t>
-  </si>
-  <si>
-    <t>Sepiola</t>
-  </si>
-  <si>
-    <t>rondeletii</t>
-  </si>
-  <si>
-    <t>Sépiole de Rondelet</t>
-  </si>
-  <si>
-    <t>Loliginidae</t>
-  </si>
-  <si>
-    <t>Loligo</t>
-  </si>
-  <si>
-    <t>Calamar</t>
-  </si>
-  <si>
     <t>Oui</t>
   </si>
   <si>
     <t>Non</t>
-  </si>
-  <si>
-    <t>Sepiidae</t>
   </si>
   <si>
     <t>family</t>
@@ -2795,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I268"/>
+  <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2816,31 +2732,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2860,16 +2776,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,16 +2805,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2918,16 +2834,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2947,16 +2863,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2976,16 +2892,16 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,16 +2921,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3034,16 +2950,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3063,16 +2979,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3092,16 +3008,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3121,16 +3037,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,16 +3066,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3179,16 +3095,16 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3208,16 +3124,16 @@
         <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3237,16 +3153,16 @@
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3266,16 +3182,16 @@
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3295,16 +3211,16 @@
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3324,16 +3240,16 @@
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3353,16 +3269,16 @@
         <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3382,16 +3298,16 @@
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,16 +3327,16 @@
         <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3440,16 +3356,16 @@
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3469,16 +3385,16 @@
         <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,16 +3414,16 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3527,16 +3443,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3556,16 +3472,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3585,16 +3501,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3614,16 +3530,16 @@
         <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3643,16 +3559,16 @@
         <v>44</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3672,16 +3588,16 @@
         <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3701,16 +3617,16 @@
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3730,16 +3646,16 @@
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3759,16 +3675,16 @@
         <v>4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,16 +3704,16 @@
         <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3817,16 +3733,16 @@
         <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3846,16 +3762,16 @@
         <v>44</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3875,16 +3791,16 @@
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3904,16 +3820,16 @@
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3933,16 +3849,16 @@
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3962,16 +3878,16 @@
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3991,16 +3907,16 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4020,16 +3936,16 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4049,16 +3965,16 @@
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4078,16 +3994,16 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4107,16 +4023,16 @@
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4136,16 +4052,16 @@
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4165,16 +4081,16 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4194,16 +4110,16 @@
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4223,16 +4139,16 @@
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4252,16 +4168,16 @@
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4281,16 +4197,16 @@
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4310,16 +4226,16 @@
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4339,16 +4255,16 @@
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4368,16 +4284,16 @@
         <v>44</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4397,16 +4313,16 @@
         <v>44</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4426,16 +4342,16 @@
         <v>44</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,16 +4371,16 @@
         <v>44</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4484,16 +4400,16 @@
         <v>44</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4513,16 +4429,16 @@
         <v>44</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4542,16 +4458,16 @@
         <v>44</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4571,16 +4487,16 @@
         <v>44</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4600,16 +4516,16 @@
         <v>44</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4629,16 +4545,16 @@
         <v>44</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4658,16 +4574,16 @@
         <v>44</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4687,16 +4603,16 @@
         <v>44</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4716,16 +4632,16 @@
         <v>44</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4745,16 +4661,16 @@
         <v>44</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4774,16 +4690,16 @@
         <v>44</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4803,16 +4719,16 @@
         <v>44</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4832,16 +4748,16 @@
         <v>44</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4861,16 +4777,16 @@
         <v>44</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4890,16 +4806,16 @@
         <v>44</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4919,16 +4835,16 @@
         <v>44</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4939,59 +4855,59 @@
         <v>217</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>223</v>
@@ -5006,16 +4922,16 @@
         <v>44</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5035,543 +4951,543 @@
         <v>44</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B81" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>245</v>
+        <v>86</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>273</v>
@@ -5586,16 +5502,16 @@
         <v>44</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5615,16 +5531,16 @@
         <v>44</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5644,16 +5560,16 @@
         <v>44</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,253 +5589,253 @@
         <v>44</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="D100" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C103" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B104" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>308</v>
@@ -5934,16 +5850,16 @@
         <v>44</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5963,16 +5879,16 @@
         <v>44</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5992,137 +5908,137 @@
         <v>44</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="D111" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="C112" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>323</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>330</v>
@@ -6134,56 +6050,56 @@
         <v>332</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="D116" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>336</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>338</v>
@@ -6192,19 +6108,19 @@
         <v>339</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6221,53 +6137,53 @@
         <v>343</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>348</v>
@@ -6279,19 +6195,19 @@
         <v>350</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6308,19 +6224,19 @@
         <v>354</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>337</v>
+        <v>44</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6340,16 +6256,16 @@
         <v>44</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6369,16 +6285,16 @@
         <v>44</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6395,1796 +6311,1796 @@
         <v>366</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>44</v>
+        <v>333</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>370</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C129" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="C132" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="E132" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>391</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>394</v>
-      </c>
       <c r="E135" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="E136" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B137" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="E137" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C139" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>404</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>406</v>
+        <v>264</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>268</v>
+        <v>407</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>408</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C142" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="D142" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C142" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="E142" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>417</v>
+        <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>16</v>
+        <v>418</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>419</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="C147" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D147" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C147" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="E147" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>340</v>
+        <v>423</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>424</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>86</v>
+        <v>425</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>426</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="D150" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="E150" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>445</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>444</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="C163" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>455</v>
-      </c>
       <c r="E163" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B164" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C164" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>458</v>
-      </c>
       <c r="E164" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C165" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D165" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="E165" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>463</v>
-      </c>
       <c r="E166" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>466</v>
-      </c>
       <c r="E167" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>469</v>
-      </c>
       <c r="E168" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>472</v>
-      </c>
       <c r="E169" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>475</v>
-      </c>
       <c r="E170" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C171" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="D171" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>477</v>
-      </c>
       <c r="E171" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>480</v>
-      </c>
       <c r="E172" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C173" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>482</v>
-      </c>
       <c r="E173" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>485</v>
-      </c>
       <c r="E174" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>488</v>
-      </c>
       <c r="E175" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>491</v>
-      </c>
       <c r="E176" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B177" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>494</v>
-      </c>
       <c r="E177" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C178" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>496</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>499</v>
-      </c>
       <c r="E179" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>502</v>
-      </c>
       <c r="E180" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B181" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>504</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="E181" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>427</v>
+        <v>512</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>514</v>
@@ -8193,56 +8109,56 @@
         <v>515</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="D187" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="D187" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="E187" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>520</v>
@@ -8251,19 +8167,19 @@
         <v>521</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8280,288 +8196,288 @@
         <v>525</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="D190" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>529</v>
-      </c>
       <c r="E190" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="D192" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="D192" s="2" t="s">
-        <v>533</v>
-      </c>
       <c r="E192" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B193" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="D193" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="D193" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="E193" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B194" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C194" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="D194" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D194" s="2" t="s">
-        <v>539</v>
-      </c>
       <c r="E194" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>526</v>
+        <v>539</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>540</v>
       </c>
       <c r="C195" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D195" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="D195" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="E195" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="D196" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="E196" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C197" s="2" t="s">
-        <v>546</v>
-      </c>
       <c r="D197" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>550</v>
@@ -8570,19 +8486,19 @@
         <v>551</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8599,19 +8515,19 @@
         <v>555</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8628,111 +8544,111 @@
         <v>559</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="D202" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>563</v>
-      </c>
       <c r="E202" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C204" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="D204" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="D204" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="E204" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>568</v>
@@ -8744,19 +8660,19 @@
         <v>570</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8773,19 +8689,19 @@
         <v>574</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8802,85 +8718,85 @@
         <v>578</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>581</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>582</v>
-      </c>
       <c r="E208" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>585</v>
@@ -8889,19 +8805,19 @@
         <v>586</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8918,53 +8834,53 @@
         <v>590</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="D212" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D212" s="2" t="s">
-        <v>594</v>
-      </c>
       <c r="E212" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>595</v>
@@ -8976,198 +8892,198 @@
         <v>597</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>337</v>
+        <v>598</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>602</v>
+        <v>333</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="D215" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="D215" s="2" t="s">
-        <v>606</v>
-      </c>
       <c r="E215" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>607</v>
       </c>
       <c r="C216" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="D216" s="2" t="s">
-        <v>609</v>
-      </c>
       <c r="E216" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="D217" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="C217" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>612</v>
-      </c>
       <c r="E217" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B218" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="C218" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="D218" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D218" s="2" t="s">
-        <v>615</v>
-      </c>
       <c r="E218" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B219" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="C219" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="D219" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="D219" s="2" t="s">
-        <v>618</v>
-      </c>
       <c r="E219" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>619</v>
@@ -9179,19 +9095,19 @@
         <v>621</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9208,19 +9124,19 @@
         <v>625</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9231,88 +9147,88 @@
         <v>627</v>
       </c>
       <c r="C222" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="D222" s="2" t="s">
-        <v>629</v>
-      </c>
       <c r="E222" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>632</v>
-      </c>
       <c r="E223" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>631</v>
       </c>
       <c r="C224" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="D224" s="2" t="s">
-        <v>634</v>
-      </c>
       <c r="E224" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>635</v>
@@ -9324,19 +9240,19 @@
         <v>637</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9353,85 +9269,85 @@
         <v>641</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="D227" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="E227" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>648</v>
-      </c>
       <c r="E228" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>649</v>
@@ -9440,135 +9356,135 @@
         <v>650</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>654</v>
-      </c>
       <c r="E230" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C231" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>656</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B232" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>659</v>
-      </c>
       <c r="E232" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>660</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>661</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9585,256 +9501,256 @@
         <v>665</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>669</v>
-      </c>
       <c r="E235" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C236" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="D236" s="2" t="s">
-        <v>671</v>
-      </c>
       <c r="E236" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>674</v>
-      </c>
       <c r="E237" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C238" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D238" s="2" t="s">
-        <v>676</v>
-      </c>
       <c r="E238" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B239" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="C239" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="D239" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>679</v>
-      </c>
       <c r="E239" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B240" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>682</v>
-      </c>
       <c r="E240" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>248</v>
+        <v>681</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>683</v>
       </c>
       <c r="C242" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D242" s="2" t="s">
-        <v>686</v>
-      </c>
       <c r="E242" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>687</v>
@@ -9846,56 +9762,56 @@
         <v>689</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>759</v>
+        <v>733</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>693</v>
-      </c>
       <c r="E244" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>694</v>
@@ -9904,19 +9820,19 @@
         <v>695</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9933,657 +9849,425 @@
         <v>699</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>703</v>
-      </c>
       <c r="E247" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>706</v>
-      </c>
       <c r="E248" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>704</v>
-      </c>
       <c r="C249" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="C250" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>709</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>710</v>
-      </c>
       <c r="E250" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>713</v>
-      </c>
       <c r="E251" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>715</v>
+        <v>380</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>384</v>
+        <v>716</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>717</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>721</v>
-      </c>
       <c r="E254" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>722</v>
+        <v>624</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="D257" s="2" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="C259" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>731</v>
-      </c>
       <c r="E259" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>733</v>
+        <v>542</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>760</v>
+        <v>733</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>546</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="E261" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H261" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="I261" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="E262" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="H262" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="I262" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>741</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D263" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="E263" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F263" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H263" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I263" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>744</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>745</v>
-      </c>
-      <c r="E264" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F264" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H264" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I264" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="D265" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="E265" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F265" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="H265" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I265" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>749</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="E266" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F266" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H266" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I266" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="E267" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="F267" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="H267" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="I267" s="6" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D268" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="E268" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>760</v>
-      </c>
-      <c r="H268" s="3" t="s">
-        <v>759</v>
-      </c>
-      <c r="I268" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
     </row>
   </sheetData>

--- a/data/Liste especes mediterranee.xlsx
+++ b/data/Liste especes mediterranee.xlsx
@@ -2,24 +2,29 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Desktop\medplanet\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="26115" yWindow="465" windowWidth="25080" windowHeight="28335"/>
   </bookViews>
   <sheets>
     <sheet name="Liste espèces" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2340" uniqueCount="743">
   <si>
     <t>Clupeidae</t>
   </si>
@@ -1029,9 +1034,6 @@
     <t>Mostelle de fond</t>
   </si>
   <si>
-    <t>Lotidae</t>
-  </si>
-  <si>
     <t>Molva</t>
   </si>
   <si>
@@ -1575,12 +1577,6 @@
     <t>Rouget barbet de roche</t>
   </si>
   <si>
-    <t>Dactylopteridae</t>
-  </si>
-  <si>
-    <t>Dactylopterus</t>
-  </si>
-  <si>
     <t>volitans</t>
   </si>
   <si>
@@ -1746,9 +1742,6 @@
     <t>Cline argenté</t>
   </si>
   <si>
-    <t>Trypterygiidae</t>
-  </si>
-  <si>
     <t>Tripterygion</t>
   </si>
   <si>
@@ -2251,6 +2244,15 @@
   </si>
   <si>
     <t>Guide Louizy</t>
+  </si>
+  <si>
+    <t>Tripterygiidae</t>
+  </si>
+  <si>
+    <t>Dactilopterus</t>
+  </si>
+  <si>
+    <t>Dactilopterydae</t>
   </si>
 </sst>
 </file>
@@ -2425,7 +2427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2713,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
-      <selection activeCell="D223" sqref="D223"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2726,37 +2728,37 @@
     <col min="5" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="14.28515625" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>733</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>737</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>738</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2776,16 +2778,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2805,16 +2807,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,16 +2836,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2863,16 +2865,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2892,16 +2894,16 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2921,16 +2923,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2950,16 +2952,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,16 +2981,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3008,16 +3010,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3037,16 +3039,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3066,16 +3068,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3095,16 +3097,16 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3124,16 +3126,16 @@
         <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3153,16 +3155,16 @@
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3182,16 +3184,16 @@
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3211,16 +3213,16 @@
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3240,16 +3242,16 @@
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,16 +3271,16 @@
         <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3298,16 +3300,16 @@
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3327,16 +3329,16 @@
         <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3356,16 +3358,16 @@
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3385,16 +3387,16 @@
         <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3414,16 +3416,16 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3443,16 +3445,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3472,16 +3474,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,16 +3503,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,16 +3532,16 @@
         <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3559,16 +3561,16 @@
         <v>44</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3588,16 +3590,16 @@
         <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3617,16 +3619,16 @@
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3646,16 +3648,16 @@
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3675,16 +3677,16 @@
         <v>4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3704,16 +3706,16 @@
         <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3733,16 +3735,16 @@
         <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3762,16 +3764,16 @@
         <v>44</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3791,16 +3793,16 @@
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3820,16 +3822,16 @@
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3849,16 +3851,16 @@
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3878,16 +3880,16 @@
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3907,16 +3909,16 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3936,16 +3938,16 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,16 +3967,16 @@
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,16 +3996,16 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4023,16 +4025,16 @@
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4052,16 +4054,16 @@
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4081,16 +4083,16 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4110,16 +4112,16 @@
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4139,16 +4141,16 @@
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4168,16 +4170,16 @@
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4197,16 +4199,16 @@
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,16 +4228,16 @@
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4255,16 +4257,16 @@
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4284,16 +4286,16 @@
         <v>44</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4313,16 +4315,16 @@
         <v>44</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4342,16 +4344,16 @@
         <v>44</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4371,16 +4373,16 @@
         <v>44</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4400,16 +4402,16 @@
         <v>44</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4429,16 +4431,16 @@
         <v>44</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4458,16 +4460,16 @@
         <v>44</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4487,16 +4489,16 @@
         <v>44</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4516,16 +4518,16 @@
         <v>44</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4545,16 +4547,16 @@
         <v>44</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4574,16 +4576,16 @@
         <v>44</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4603,16 +4605,16 @@
         <v>44</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4632,16 +4634,16 @@
         <v>44</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4661,16 +4663,16 @@
         <v>44</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4690,16 +4692,16 @@
         <v>44</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4719,16 +4721,16 @@
         <v>44</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4748,16 +4750,16 @@
         <v>44</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4777,16 +4779,16 @@
         <v>44</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4806,16 +4808,16 @@
         <v>44</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4835,16 +4837,16 @@
         <v>44</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4864,16 +4866,16 @@
         <v>44</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4893,16 +4895,16 @@
         <v>44</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4922,16 +4924,16 @@
         <v>44</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4951,16 +4953,16 @@
         <v>44</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4980,16 +4982,16 @@
         <v>44</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5009,16 +5011,16 @@
         <v>44</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5038,16 +5040,16 @@
         <v>44</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5067,16 +5069,16 @@
         <v>44</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5096,16 +5098,16 @@
         <v>44</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5125,16 +5127,16 @@
         <v>44</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5154,16 +5156,16 @@
         <v>44</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,16 +5185,16 @@
         <v>44</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5212,16 +5214,16 @@
         <v>44</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5241,16 +5243,16 @@
         <v>44</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5270,16 +5272,16 @@
         <v>44</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5299,16 +5301,16 @@
         <v>44</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5328,16 +5330,16 @@
         <v>44</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5357,16 +5359,16 @@
         <v>44</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5386,16 +5388,16 @@
         <v>44</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5415,16 +5417,16 @@
         <v>44</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5444,16 +5446,16 @@
         <v>44</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5473,16 +5475,16 @@
         <v>44</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5502,16 +5504,16 @@
         <v>44</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5531,16 +5533,16 @@
         <v>44</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5560,16 +5562,16 @@
         <v>44</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5589,16 +5591,16 @@
         <v>44</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5618,16 +5620,16 @@
         <v>44</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5647,16 +5649,16 @@
         <v>44</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5676,16 +5678,16 @@
         <v>44</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5705,16 +5707,16 @@
         <v>44</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5734,16 +5736,16 @@
         <v>44</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5763,16 +5765,16 @@
         <v>44</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5792,16 +5794,16 @@
         <v>44</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5821,16 +5823,16 @@
         <v>44</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5850,16 +5852,16 @@
         <v>44</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5879,16 +5881,16 @@
         <v>44</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5908,16 +5910,16 @@
         <v>44</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5937,16 +5939,16 @@
         <v>44</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5966,16 +5968,16 @@
         <v>44</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5995,16 +5997,16 @@
         <v>44</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6024,16 +6026,16 @@
         <v>44</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6053,16 +6055,16 @@
         <v>333</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6082,4192 +6084,4192 @@
         <v>333</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="D117" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>339</v>
-      </c>
       <c r="E117" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="D118" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="D119" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="D120" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D120" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="E120" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="D121" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="D122" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="D123" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="D124" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D124" s="2" t="s">
-        <v>366</v>
-      </c>
       <c r="E124" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C125" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="D125" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="E125" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C126" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D126" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="E126" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C127" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="E127" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C128" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="E128" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>377</v>
-      </c>
       <c r="E129" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>379</v>
-      </c>
       <c r="E130" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C131" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="E131" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B132" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="C132" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="D132" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>384</v>
-      </c>
       <c r="E132" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="E133" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="D134" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="E134" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B135" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C135" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="D135" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>393</v>
-      </c>
       <c r="E135" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B136" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C136" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="D136" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>396</v>
-      </c>
       <c r="E136" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="E137" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C138" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>400</v>
-      </c>
       <c r="E138" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C139" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="D139" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>403</v>
-      </c>
       <c r="E139" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>264</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="D141" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="E141" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C142" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D142" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="E142" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B143" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C143" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D143" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>412</v>
-      </c>
       <c r="E143" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>406</v>
-      </c>
       <c r="C144" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D144" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>414</v>
-      </c>
       <c r="E144" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E145" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="D146" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>419</v>
-      </c>
       <c r="E146" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>86</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="D149" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="E149" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C150" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D150" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="E150" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B151" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C151" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D151" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>430</v>
-      </c>
       <c r="E151" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C152" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="E152" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B153" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C153" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D153" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="E153" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C154" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="D154" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="E154" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B155" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C155" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="D155" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>438</v>
-      </c>
       <c r="E155" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B156" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C156" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D156" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>440</v>
-      </c>
       <c r="E156" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B157" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C157" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D157" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="E157" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E158" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C159" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D159" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="E159" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C160" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="D160" s="2" t="s">
-        <v>447</v>
-      </c>
       <c r="E160" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C161" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D161" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="E161" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B162" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="C162" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="D162" s="2" t="s">
-        <v>451</v>
-      </c>
       <c r="E162" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C163" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="D163" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="E163" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C164" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D164" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="E164" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="D165" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>459</v>
-      </c>
       <c r="E165" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C166" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="D166" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="E166" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C167" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="D167" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="D167" s="2" t="s">
-        <v>465</v>
-      </c>
       <c r="E167" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="D168" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="D168" s="2" t="s">
-        <v>468</v>
-      </c>
       <c r="E168" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B169" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C169" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="D169" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="D169" s="2" t="s">
-        <v>471</v>
-      </c>
       <c r="E169" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C170" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="D170" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D170" s="2" t="s">
-        <v>473</v>
-      </c>
       <c r="E170" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="D171" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="D171" s="2" t="s">
-        <v>476</v>
-      </c>
       <c r="E171" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="D172" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D172" s="2" t="s">
-        <v>478</v>
-      </c>
       <c r="E172" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B173" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C173" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="D173" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="D173" s="2" t="s">
-        <v>481</v>
-      </c>
       <c r="E173" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B174" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C174" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="D174" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="D174" s="2" t="s">
-        <v>484</v>
-      </c>
       <c r="E174" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B175" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="D175" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="D175" s="2" t="s">
-        <v>487</v>
-      </c>
       <c r="E175" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B176" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C176" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="D176" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="D176" s="2" t="s">
-        <v>490</v>
-      </c>
       <c r="E176" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C177" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="D177" s="2" t="s">
-        <v>492</v>
-      </c>
       <c r="E177" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="D178" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="D178" s="2" t="s">
-        <v>495</v>
-      </c>
       <c r="E178" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="D179" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D179" s="2" t="s">
-        <v>498</v>
-      </c>
       <c r="E179" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B180" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C180" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="D180" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="D180" s="2" t="s">
-        <v>501</v>
-      </c>
       <c r="E180" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C181" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="D181" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="D181" s="2" t="s">
-        <v>503</v>
-      </c>
       <c r="E181" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C182" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="D182" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="D182" s="2" t="s">
-        <v>505</v>
-      </c>
       <c r="E182" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C183" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="D183" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="D183" s="2" t="s">
-        <v>507</v>
-      </c>
       <c r="E183" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C184" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="E184" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C185" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="D185" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="E185" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="D186" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>515</v>
-      </c>
       <c r="E186" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="B187" s="2" t="s">
-        <v>513</v>
-      </c>
       <c r="C187" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D187" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>517</v>
-      </c>
       <c r="E187" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B188" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>521</v>
-      </c>
       <c r="E188" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="D189" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="B189" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>524</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>525</v>
-      </c>
       <c r="E189" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B190" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>526</v>
-      </c>
       <c r="D190" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C196" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="D196" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>543</v>
-      </c>
       <c r="E196" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D199" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="C199" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>551</v>
-      </c>
       <c r="E199" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="D200" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="C200" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>555</v>
-      </c>
       <c r="E200" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D201" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B201" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="C201" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>559</v>
-      </c>
       <c r="E201" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B202" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C202" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C202" s="2" t="s">
-        <v>560</v>
-      </c>
       <c r="D202" s="2" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D205" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B205" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>570</v>
-      </c>
       <c r="E205" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B206" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>574</v>
-      </c>
       <c r="E206" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>575</v>
+        <v>740</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="E207" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="D208" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="C208" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="E208" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>575</v>
+        <v>740</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B212" s="2" t="s">
-        <v>591</v>
-      </c>
       <c r="C212" s="2" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="B213" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>596</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="E213" s="2" t="s">
-        <v>598</v>
-      </c>
       <c r="F213" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="B215" s="2" t="s">
-        <v>603</v>
-      </c>
       <c r="C215" s="2" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="E215" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>313</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="B217" s="2" t="s">
-        <v>609</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>610</v>
-      </c>
       <c r="D217" s="2" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>121</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="B223" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>630</v>
-      </c>
       <c r="E223" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>642</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="C228" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="C228" s="2" t="s">
-        <v>645</v>
-      </c>
-      <c r="D228" s="2" t="s">
-        <v>646</v>
-      </c>
       <c r="E228" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="C230" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="D230" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="C230" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>652</v>
-      </c>
       <c r="E230" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>327</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="C235" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="D235" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C235" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>667</v>
-      </c>
       <c r="E235" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="C237" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>672</v>
-      </c>
       <c r="E237" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>244</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="E243" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="D244" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C244" s="2" t="s">
-        <v>690</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>691</v>
-      </c>
       <c r="E244" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B247" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="C247" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="C248" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="C248" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>704</v>
-      </c>
       <c r="E248" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="C249" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C254" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="D254" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="C254" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="D254" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="E254" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B257" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C257" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="C257" s="2" t="s">
-        <v>724</v>
-      </c>
       <c r="D257" s="2" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>

--- a/data/Liste especes mediterranee.xlsx
+++ b/data/Liste especes mediterranee.xlsx
@@ -2102,9 +2102,6 @@
     <t>Poisson crapaud</t>
   </si>
   <si>
-    <t>Gobisocidae</t>
-  </si>
-  <si>
     <t>Gouania</t>
   </si>
   <si>
@@ -2253,6 +2250,9 @@
   </si>
   <si>
     <t>Dactilopterydae</t>
+  </si>
+  <si>
+    <t>Gobioscidae</t>
   </si>
 </sst>
 </file>
@@ -2715,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="C247" sqref="C247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2734,31 +2734,31 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>737</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2778,16 +2778,16 @@
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2807,16 +2807,16 @@
         <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,16 +2836,16 @@
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2865,16 +2865,16 @@
         <v>4</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2894,16 +2894,16 @@
         <v>4</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2923,16 +2923,16 @@
         <v>4</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2952,16 +2952,16 @@
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2981,16 +2981,16 @@
         <v>4</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3010,16 +3010,16 @@
         <v>4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,16 +3039,16 @@
         <v>4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3068,16 +3068,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3097,21 +3097,21 @@
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>41</v>
@@ -3126,21 +3126,21 @@
         <v>44</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>41</v>
@@ -3155,21 +3155,21 @@
         <v>44</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>41</v>
@@ -3184,16 +3184,16 @@
         <v>44</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3213,16 +3213,16 @@
         <v>44</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3242,16 +3242,16 @@
         <v>44</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3271,16 +3271,16 @@
         <v>44</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3300,16 +3300,16 @@
         <v>44</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3329,16 +3329,16 @@
         <v>44</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3358,16 +3358,16 @@
         <v>44</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3387,16 +3387,16 @@
         <v>44</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,16 +3416,16 @@
         <v>4</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,16 +3445,16 @@
         <v>4</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I25" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3474,16 +3474,16 @@
         <v>4</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3503,16 +3503,16 @@
         <v>4</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3532,16 +3532,16 @@
         <v>44</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3561,16 +3561,16 @@
         <v>44</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3590,16 +3590,16 @@
         <v>44</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3619,16 +3619,16 @@
         <v>4</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3648,16 +3648,16 @@
         <v>4</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3677,16 +3677,16 @@
         <v>4</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I33" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,16 +3706,16 @@
         <v>44</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3735,16 +3735,16 @@
         <v>44</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3764,16 +3764,16 @@
         <v>44</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3793,16 +3793,16 @@
         <v>4</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3822,16 +3822,16 @@
         <v>4</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3851,16 +3851,16 @@
         <v>4</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3880,16 +3880,16 @@
         <v>4</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3909,16 +3909,16 @@
         <v>4</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I41" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,16 +3938,16 @@
         <v>4</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3967,16 +3967,16 @@
         <v>4</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3996,16 +3996,16 @@
         <v>4</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4025,16 +4025,16 @@
         <v>4</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I45" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4054,16 +4054,16 @@
         <v>4</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4083,16 +4083,16 @@
         <v>4</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4112,16 +4112,16 @@
         <v>4</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,16 +4141,16 @@
         <v>44</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4170,16 +4170,16 @@
         <v>4</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4199,16 +4199,16 @@
         <v>4</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4228,16 +4228,16 @@
         <v>4</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4257,16 +4257,16 @@
         <v>4</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4286,16 +4286,16 @@
         <v>44</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4315,16 +4315,16 @@
         <v>44</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,16 +4344,16 @@
         <v>44</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4373,16 +4373,16 @@
         <v>44</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4402,16 +4402,16 @@
         <v>44</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4431,16 +4431,16 @@
         <v>44</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4460,16 +4460,16 @@
         <v>44</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4489,16 +4489,16 @@
         <v>44</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4518,16 +4518,16 @@
         <v>44</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4547,16 +4547,16 @@
         <v>44</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4576,16 +4576,16 @@
         <v>44</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4605,16 +4605,16 @@
         <v>44</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,16 +4634,16 @@
         <v>44</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4663,16 +4663,16 @@
         <v>44</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4692,16 +4692,16 @@
         <v>44</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4721,16 +4721,16 @@
         <v>44</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4750,16 +4750,16 @@
         <v>44</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4779,16 +4779,16 @@
         <v>44</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4808,16 +4808,16 @@
         <v>44</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4837,16 +4837,16 @@
         <v>44</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4866,16 +4866,16 @@
         <v>44</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I74" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4895,16 +4895,16 @@
         <v>44</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4924,16 +4924,16 @@
         <v>44</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4953,16 +4953,16 @@
         <v>44</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4982,16 +4982,16 @@
         <v>44</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,16 +5011,16 @@
         <v>44</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5040,16 +5040,16 @@
         <v>44</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5069,16 +5069,16 @@
         <v>44</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5098,16 +5098,16 @@
         <v>44</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5127,16 +5127,16 @@
         <v>44</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5156,16 +5156,16 @@
         <v>44</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5185,16 +5185,16 @@
         <v>44</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5214,16 +5214,16 @@
         <v>44</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5243,16 +5243,16 @@
         <v>44</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5272,16 +5272,16 @@
         <v>44</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5301,16 +5301,16 @@
         <v>44</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5330,16 +5330,16 @@
         <v>44</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5359,16 +5359,16 @@
         <v>44</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5388,16 +5388,16 @@
         <v>44</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I92" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5417,16 +5417,16 @@
         <v>44</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5446,16 +5446,16 @@
         <v>44</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5475,16 +5475,16 @@
         <v>44</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5504,16 +5504,16 @@
         <v>44</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5533,16 +5533,16 @@
         <v>44</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I97" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5562,16 +5562,16 @@
         <v>44</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I98" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5591,16 +5591,16 @@
         <v>44</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I99" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5620,16 +5620,16 @@
         <v>44</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5649,16 +5649,16 @@
         <v>44</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I101" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5678,16 +5678,16 @@
         <v>44</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5707,16 +5707,16 @@
         <v>44</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5736,16 +5736,16 @@
         <v>44</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5765,16 +5765,16 @@
         <v>44</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5794,16 +5794,16 @@
         <v>44</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5823,16 +5823,16 @@
         <v>44</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5852,16 +5852,16 @@
         <v>44</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5881,16 +5881,16 @@
         <v>44</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5910,16 +5910,16 @@
         <v>44</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5939,16 +5939,16 @@
         <v>44</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5968,16 +5968,16 @@
         <v>44</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5997,16 +5997,16 @@
         <v>44</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6026,16 +6026,16 @@
         <v>44</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6055,16 +6055,16 @@
         <v>333</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6084,16 +6084,16 @@
         <v>333</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6113,16 +6113,16 @@
         <v>333</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I117" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6142,16 +6142,16 @@
         <v>44</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6171,16 +6171,16 @@
         <v>44</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6200,16 +6200,16 @@
         <v>333</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6229,16 +6229,16 @@
         <v>44</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6258,16 +6258,16 @@
         <v>44</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6287,16 +6287,16 @@
         <v>44</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6316,16 +6316,16 @@
         <v>333</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6345,16 +6345,16 @@
         <v>333</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6374,16 +6374,16 @@
         <v>333</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6403,16 +6403,16 @@
         <v>333</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6432,16 +6432,16 @@
         <v>333</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6461,16 +6461,16 @@
         <v>333</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6490,16 +6490,16 @@
         <v>333</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I130" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6519,16 +6519,16 @@
         <v>333</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6548,16 +6548,16 @@
         <v>333</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6577,16 +6577,16 @@
         <v>333</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6606,16 +6606,16 @@
         <v>333</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6635,16 +6635,16 @@
         <v>333</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6664,16 +6664,16 @@
         <v>333</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6693,16 +6693,16 @@
         <v>333</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6722,16 +6722,16 @@
         <v>333</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6751,16 +6751,16 @@
         <v>333</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6780,16 +6780,16 @@
         <v>333</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6809,16 +6809,16 @@
         <v>333</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6838,16 +6838,16 @@
         <v>333</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6867,16 +6867,16 @@
         <v>333</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6896,16 +6896,16 @@
         <v>333</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6925,16 +6925,16 @@
         <v>333</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6954,16 +6954,16 @@
         <v>333</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6983,16 +6983,16 @@
         <v>333</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7012,16 +7012,16 @@
         <v>333</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7041,16 +7041,16 @@
         <v>333</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7070,16 +7070,16 @@
         <v>333</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7099,16 +7099,16 @@
         <v>333</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7128,16 +7128,16 @@
         <v>333</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7157,16 +7157,16 @@
         <v>333</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7186,16 +7186,16 @@
         <v>333</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7215,16 +7215,16 @@
         <v>333</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,16 +7244,16 @@
         <v>333</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7273,16 +7273,16 @@
         <v>333</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7302,16 +7302,16 @@
         <v>333</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7331,16 +7331,16 @@
         <v>333</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7360,16 +7360,16 @@
         <v>333</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7389,16 +7389,16 @@
         <v>333</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7418,16 +7418,16 @@
         <v>333</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7447,16 +7447,16 @@
         <v>333</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7476,16 +7476,16 @@
         <v>333</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7505,16 +7505,16 @@
         <v>333</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I165" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7534,16 +7534,16 @@
         <v>333</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7563,16 +7563,16 @@
         <v>333</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7592,16 +7592,16 @@
         <v>333</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I168" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7621,16 +7621,16 @@
         <v>333</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7650,16 +7650,16 @@
         <v>333</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7679,16 +7679,16 @@
         <v>333</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7708,16 +7708,16 @@
         <v>333</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7737,16 +7737,16 @@
         <v>333</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I173" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7766,16 +7766,16 @@
         <v>333</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7795,16 +7795,16 @@
         <v>333</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I175" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,16 +7824,16 @@
         <v>333</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7853,16 +7853,16 @@
         <v>333</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7882,16 +7882,16 @@
         <v>333</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7911,16 +7911,16 @@
         <v>333</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="180" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7940,16 +7940,16 @@
         <v>333</v>
       </c>
       <c r="F180" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7969,16 +7969,16 @@
         <v>333</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7998,16 +7998,16 @@
         <v>333</v>
       </c>
       <c r="F182" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8027,16 +8027,16 @@
         <v>333</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I183" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="184" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8056,16 +8056,16 @@
         <v>333</v>
       </c>
       <c r="F184" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8085,16 +8085,16 @@
         <v>333</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8114,16 +8114,16 @@
         <v>333</v>
       </c>
       <c r="F186" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I186" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8143,24 +8143,24 @@
         <v>333</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>517</v>
@@ -8172,16 +8172,16 @@
         <v>333</v>
       </c>
       <c r="F188" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8201,16 +8201,16 @@
         <v>333</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8230,16 +8230,16 @@
         <v>333</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8259,16 +8259,16 @@
         <v>333</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I191" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8288,16 +8288,16 @@
         <v>333</v>
       </c>
       <c r="F192" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I192" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="193" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8317,16 +8317,16 @@
         <v>333</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I193" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8346,16 +8346,16 @@
         <v>333</v>
       </c>
       <c r="F194" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I194" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="195" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8375,16 +8375,16 @@
         <v>333</v>
       </c>
       <c r="F195" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I195" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8404,16 +8404,16 @@
         <v>333</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I196" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8433,16 +8433,16 @@
         <v>333</v>
       </c>
       <c r="F197" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I197" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="198" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8462,16 +8462,16 @@
         <v>333</v>
       </c>
       <c r="F198" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I198" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8491,16 +8491,16 @@
         <v>333</v>
       </c>
       <c r="F199" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I199" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8520,16 +8520,16 @@
         <v>333</v>
       </c>
       <c r="F200" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I200" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8549,16 +8549,16 @@
         <v>333</v>
       </c>
       <c r="F201" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I201" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8578,16 +8578,16 @@
         <v>333</v>
       </c>
       <c r="F202" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I202" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8607,16 +8607,16 @@
         <v>333</v>
       </c>
       <c r="F203" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I203" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8636,16 +8636,16 @@
         <v>333</v>
       </c>
       <c r="F204" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I204" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="205" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8665,16 +8665,16 @@
         <v>333</v>
       </c>
       <c r="F205" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I205" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="206" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8694,21 +8694,21 @@
         <v>333</v>
       </c>
       <c r="F206" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I206" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="207" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>572</v>
@@ -8723,21 +8723,21 @@
         <v>333</v>
       </c>
       <c r="F207" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="208" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>572</v>
@@ -8752,21 +8752,21 @@
         <v>333</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>572</v>
@@ -8781,16 +8781,16 @@
         <v>333</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H209" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8810,16 +8810,16 @@
         <v>333</v>
       </c>
       <c r="F210" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8839,16 +8839,16 @@
         <v>333</v>
       </c>
       <c r="F211" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8868,16 +8868,16 @@
         <v>333</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="213" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8897,16 +8897,16 @@
         <v>594</v>
       </c>
       <c r="F213" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8926,16 +8926,16 @@
         <v>333</v>
       </c>
       <c r="F214" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="215" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8955,16 +8955,16 @@
         <v>333</v>
       </c>
       <c r="F215" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="216" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8984,16 +8984,16 @@
         <v>333</v>
       </c>
       <c r="F216" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="217" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9013,16 +9013,16 @@
         <v>333</v>
       </c>
       <c r="F217" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I217" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9042,16 +9042,16 @@
         <v>333</v>
       </c>
       <c r="F218" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I218" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="219" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9071,16 +9071,16 @@
         <v>333</v>
       </c>
       <c r="F219" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I219" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9100,16 +9100,16 @@
         <v>333</v>
       </c>
       <c r="F220" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I220" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9129,16 +9129,16 @@
         <v>333</v>
       </c>
       <c r="F221" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I221" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9158,16 +9158,16 @@
         <v>333</v>
       </c>
       <c r="F222" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H222" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I222" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9187,16 +9187,16 @@
         <v>333</v>
       </c>
       <c r="F223" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H223" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="224" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9216,16 +9216,16 @@
         <v>333</v>
       </c>
       <c r="F224" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="225" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9245,16 +9245,16 @@
         <v>333</v>
       </c>
       <c r="F225" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I225" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9274,16 +9274,16 @@
         <v>333</v>
       </c>
       <c r="F226" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I226" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9303,16 +9303,16 @@
         <v>333</v>
       </c>
       <c r="F227" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I227" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9332,16 +9332,16 @@
         <v>333</v>
       </c>
       <c r="F228" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I228" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9361,16 +9361,16 @@
         <v>333</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I229" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9390,16 +9390,16 @@
         <v>333</v>
       </c>
       <c r="F230" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I230" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="231" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9419,16 +9419,16 @@
         <v>333</v>
       </c>
       <c r="F231" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I231" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="232" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9448,16 +9448,16 @@
         <v>333</v>
       </c>
       <c r="F232" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I232" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9477,16 +9477,16 @@
         <v>333</v>
       </c>
       <c r="F233" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="234" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9506,16 +9506,16 @@
         <v>333</v>
       </c>
       <c r="F234" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I234" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9535,16 +9535,16 @@
         <v>333</v>
       </c>
       <c r="F235" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I235" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9564,16 +9564,16 @@
         <v>333</v>
       </c>
       <c r="F236" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H236" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9593,16 +9593,16 @@
         <v>333</v>
       </c>
       <c r="F237" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I237" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9622,16 +9622,16 @@
         <v>333</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I238" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9651,16 +9651,16 @@
         <v>333</v>
       </c>
       <c r="F239" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9680,16 +9680,16 @@
         <v>333</v>
       </c>
       <c r="F240" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9709,16 +9709,16 @@
         <v>333</v>
       </c>
       <c r="F241" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9738,16 +9738,16 @@
         <v>333</v>
       </c>
       <c r="F242" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I242" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9767,16 +9767,16 @@
         <v>333</v>
       </c>
       <c r="F243" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I243" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9796,16 +9796,16 @@
         <v>333</v>
       </c>
       <c r="F244" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9825,451 +9825,451 @@
         <v>333</v>
       </c>
       <c r="F245" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="D246" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="D246" s="2" t="s">
-        <v>695</v>
-      </c>
       <c r="E246" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F246" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I246" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>695</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="D247" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D247" s="2" t="s">
-        <v>698</v>
-      </c>
       <c r="E247" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F247" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H247" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C248" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D248" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="E248" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F248" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C249" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="D249" s="2" t="s">
-        <v>702</v>
-      </c>
       <c r="E249" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F249" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H249" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="D250" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="D250" s="2" t="s">
-        <v>705</v>
-      </c>
       <c r="E250" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F250" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="D251" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="D251" s="2" t="s">
-        <v>708</v>
-      </c>
       <c r="E251" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F251" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>692</v>
+        <v>742</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>379</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F252" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="D253" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="D253" s="2" t="s">
-        <v>713</v>
-      </c>
       <c r="E253" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F253" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="254" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>711</v>
-      </c>
       <c r="C254" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="D254" s="2" t="s">
-        <v>715</v>
-      </c>
       <c r="E254" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F254" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I254" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>620</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F255" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H255" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I255" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C256" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>719</v>
-      </c>
       <c r="E256" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F256" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I256" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="257" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C257" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="D257" s="2" t="s">
-        <v>721</v>
-      </c>
       <c r="E257" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F257" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H257" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I257" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C258" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>723</v>
-      </c>
       <c r="E258" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F258" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H258" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I258" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="259" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B259" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C259" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="D259" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D259" s="2" t="s">
-        <v>726</v>
-      </c>
       <c r="E259" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F259" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I259" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="260" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>333</v>
       </c>
       <c r="F260" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I260" s="6" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
